--- a/biology/Histoire de la zoologie et de la botanique/Julius_Weise/Julius_Weise.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_Weise/Julius_Weise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Weise est un entomologiste allemand, né le 6 juin 1844 à Sommerfeld et mort le 25 février 1925 à Herichsdorf (de) près de Warmbrunn.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce spécialiste des coléoptères (coccinelles et chrysomèles), scientifique prolifique, fut l'un des premiers à utiliser les genitalias pour identifier et classifier les espèces.
 Ses collections de Chrysomelidae, de Coccinellidae, de Staphylinidae et de Carabidae sont conservées au musée d'histoire naturelle de Berlin ; celles de Cerambycidae au Musée national d'histoire naturelle des États-Unis à Washington ; celles de Curculionidae et de Scolytidae au muséum Senckenberg de Francfort-sur-le-Main ; une partie des Chrysomelidae et des Coccinellidae au muséum suédois d'histoire naturelle de Stockholm.
